--- a/static/downloads/49 Bưu điện Trung tâm Sơn Tây.xlsx
+++ b/static/downloads/49 Bưu điện Trung tâm Sơn Tây.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154210_UYENNT</t>
+          <t>154500_HONGHTT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>154500_HONGHTT</t>
+          <t>154700_THOADT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>154700_THOADT</t>
+          <t>154700_LINHNN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>154700_LINHNN</t>
+          <t>154700_TRANGPTH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>154700_TRANGPTH</t>
+          <t>154700_YENNT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>154700_YENNT</t>
+          <t>154850_HATTT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>154850_HATTT</t>
+          <t>154970_PHUONGNT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>154970_PHUONGNT</t>
+          <t>155070_MYTT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>155070_MYTT</t>
+          <t>155070_BINHDTH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>155070_BINHDTH</t>
+          <t>154700_ANHLTT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>154700_ANHLTT</t>
+          <t>154990_DUYENDTH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>154990_DUYENDTH</t>
+          <t>154971_LUANCTB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>154971_LUANCTB</t>
+          <t>154750_HANGNT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>154750_HANGNT</t>
+          <t>154810_THAONTT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>154810_THAONTT</t>
+          <t>154740_LANDTP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>154730_BANTT</t>
+          <t>154840_VANPT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>154740_LANDTP</t>
+          <t>155050_THUYNTB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>154840_VANPT</t>
+          <t>154770_NGOCND</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>155050_THUYNTB</t>
+          <t>155011_QUYNTK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>154770_NGOCND</t>
+          <t>154790_THANHNTB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>155011_QUYNTK</t>
+          <t>154830_TOANDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>154790_THANHNTB</t>
+          <t>154900_NAMPV</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>154830_TOANDT</t>
+          <t>154800_THUYPT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>154900_NAMPV</t>
+          <t>154820_TAMNT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>154800_THUYPT</t>
+          <t>155132_XUANNT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>154820_TAMNT</t>
+          <t>155071_NINHNT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>155132_XUANNT</t>
+          <t>154858_DAPT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>155140_LANNT</t>
+          <t>155110_HUNGHT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>155071_NINHNT</t>
+          <t>154956_TUYETNT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>154858_DAPT</t>
+          <t>155040_TUYETDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>154870_HAIPT</t>
+          <t>154000_MAIPT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>155110_HUNGHT</t>
+          <t>154000_TUYENPT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>154956_TUYETNT</t>
+          <t>154280_THUVTH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>155040_TUYETDT</t>
+          <t>154280_NHUNGDTH</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>154000_MAIPT</t>
+          <t>154280_SUONGLT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>154000_TUYENPT</t>
+          <t>154531_HANHHT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>154280_THUVTH</t>
+          <t>154480_HUONGNTT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>154280_NHUNGDTH</t>
+          <t>154400_OANHNTK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>154280_SUONGLT</t>
+          <t>155300_HUYENVTT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>154531_HANHHT</t>
+          <t>155430_KHANHKT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>154380_PHUPV</t>
+          <t>155320_HIEPCT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>154480_HUONGNTT</t>
+          <t>155420_CHINHNTK</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>154440_ANHDNL</t>
+          <t>155640_HUYENNT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>154400_OANHNTK</t>
+          <t>155470PHUONGNTT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>155300_HUYENVTT</t>
+          <t>153631_HUONGTT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>155430_KHANHKT</t>
+          <t>153840_YENNH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>155550_THUYNTM</t>
+          <t>153860_HONGKT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>155320_HIEPCT</t>
+          <t>153850_HUYENNTT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>155420_CHINHNTK</t>
+          <t>153784_HUETTT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>155640_HUYENNT</t>
+          <t>153626_SANHKT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>155470PHUONGNTT</t>
+          <t>153790_XUANNTT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>153631_HUONGTT</t>
+          <t>155790_TRUCNT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>153840_YENNH</t>
+          <t>153810_BINHNT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>153860_HONGKT</t>
+          <t>154000_HUONGNT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>153850_HUYENNTT</t>
+          <t>155770_HIENDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>153784_HUETTT</t>
+          <t>155410_HANHNT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>153626_SANHKT</t>
+          <t>155730_HANT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>153790_XUANNTT</t>
+          <t>155740_PHUOCNT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>155790_TRUCNT</t>
+          <t>155820_DINHTT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>153810_BINHNT</t>
+          <t>155730_HATBC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>155590_THUYDT</t>
+          <t>155740_PHUOCTBC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>154000_HUONGNT</t>
+          <t>155820_DINHTBC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>155770_HIENDT</t>
+          <t>155930_TRANGTBC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>155410_HANHNT</t>
+          <t>155790_TRUCTBC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>155730_HANT</t>
+          <t>155830_MAITBC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>155740_PHUOCNT</t>
+          <t>154940_VINHNTT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>155820_DINHTT</t>
+          <t>154880_HANHTBC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>155730_HATBC</t>
+          <t>154400_ANHND</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>155740_PHUOCTBC</t>
+          <t>153600_THUYBTK</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>155820_DINHTBC</t>
+          <t>153600_HOALTT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>155930_TRANGTBC</t>
+          <t>153760_THUYNT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>155790_TRUCTBC</t>
+          <t>154890_THUYVT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>155830_MAITBC</t>
+          <t>153700_THUANNT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>154940_VINHNTT</t>
+          <t>154700_LINHNN1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>154880_HANHTBC</t>
+          <t>153609_TUONGNT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>155460_THANHHT</t>
+          <t>153650_SONNT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>154400_ANHND</t>
+          <t>153650_SONTBC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>153600_THUYBTK</t>
+          <t>153770_NGABT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>153600_HOALTT</t>
+          <t>153770_NGATBC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>153760_THUYNT</t>
+          <t>153820_NGUYETTB</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>154890_THUYVT</t>
+          <t>155070_TUYENNT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>155380_HONGNT</t>
+          <t>154920_QUYETNT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>153700_THUANNT</t>
+          <t>153827_ANHDT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>154700_LINHNN1</t>
+          <t>153850_HUYENTBC</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>154210_VANVK</t>
+          <t>153606_GIANGVH</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>153609_TUONGNT</t>
+          <t>154000_ANHTTN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>153650_SONNT</t>
+          <t>155904_HANHNT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>153650_SONTBC</t>
+          <t>155870_THAOHTP</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>153770_NGABT</t>
+          <t>153600_THUYTBC</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>153770_NGATBC</t>
+          <t>153820_NGUYET</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>153820_NGUYETTB</t>
+          <t>155070_PHUONGNT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>155070_TUYENNT</t>
+          <t>155910_CHIEMTT</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>154920_QUYETNT</t>
+          <t>153660_DAONT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>153827_ANHDT</t>
+          <t>153730_CHIHD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>153850_HUYENTBC</t>
+          <t>153610_HUNGDT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>153606_GIANGVH</t>
+          <t>153600_HAPTT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>155690_HUONGNTL</t>
+          <t>154950_LINHCTP</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>155300_THUYNT</t>
+          <t>154042_HAODT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>154000_ANHTTN</t>
+          <t>154000_SONDT</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>155904_HANHNT</t>
+          <t>153670_HOATBC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>155870_THAOHTP</t>
+          <t>153630_THUYVT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>154210_HAVT</t>
+          <t>153760_QUYEN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>153600_THUYTBC</t>
+          <t>155300_LINHVT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>153820_NGUYET</t>
+          <t>153606_GIANGTBC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>155070_PHUONGNT</t>
+          <t>154700_GIANGNT</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>155910_CHIEMTT</t>
+          <t>154910_CUCNT1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>153660_DAONT</t>
+          <t>155370_ANHNTL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,202 +1720,10 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>153730_CHIHD</t>
+          <t>155850_HUENT1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>153610_HUNGDT</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>153600_HAPTT</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>153600_MAINTP</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>154950_LINHCTP</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>154042_HAODT</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>154000_SONDT</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>153670_HOATBC</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>153630_THUYVT</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>153760_QUYEN</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>155300_LINHVT</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>49_HONGNA</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>153606_GIANGTBC</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>154700_GIANGNT</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>154910_CUCNT1</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>155370_ANHNTL</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>49_Bưu điện Trung tâm Sơn Tây</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>155850_HUENT1</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
         <is>
           <t>49_Bưu điện Trung tâm Sơn Tây</t>
         </is>
